--- a/jacobi/src/test/resources/jacobi/test/data/MultiShiftsQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MultiShiftsQRTest.xlsx
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:C113"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19301,1621 +19301,1621 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*2-0.7</f>
-        <v>0.96874394818036258</v>
+        <v>0.58551806756495717</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:M16" ca="1" si="0">RAND()*2-0.7</f>
-        <v>0.64984509387857559</v>
+        <v>0.7113341589354063</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6792242288110621E-3</v>
+        <v>1.1321046669946344</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4895095460197163</v>
+        <v>-0.23380686602560696</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44980709325348567</v>
+        <v>-0.55022941705290318</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75337908365901196</v>
+        <v>1.1411145054987606</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2108439319959823</v>
+        <v>0.18552245059180672</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41073245005882408</v>
+        <v>1.0692381938987012</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9706175894121563E-2</v>
+        <v>0.39817818421555695</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1291016821965554</v>
+        <v>-0.20914058975724514</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1674954900496441E-2</v>
+        <v>0.19638555896221721</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3237176729854625</v>
+        <v>1.0310315192919404</v>
       </c>
       <c r="M1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75120179147247867</v>
+        <v>0.2856034075618874</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:M30" ca="1" si="1">RAND()*2-0.7</f>
-        <v>0.41577175128676136</v>
+        <v>0.44824831564503453</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9525099571157396</v>
+        <v>0.66636161184702281</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9730789555431314</v>
+        <v>1.2144881589608536</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.65506147263553882</v>
+        <v>-0.46069289182201412</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0178417823088388E-2</v>
+        <v>1.1691219194087279</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.38702495071445764</v>
+        <v>-0.33780840616210006</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1032714603737703</v>
+        <v>0.6570711303340504</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45906777524590581</v>
+        <v>1.1963474501235207</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76514046770647348</v>
+        <v>0.71490368894786815</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24507130104177088</v>
+        <v>0.94514309575397704</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52874952409024623</v>
+        <v>0.22465146149847892</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37429614975085679</v>
+        <v>0.19359560548099886</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.29721488380157002</v>
+        <v>1.100329128079546</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23669896209907582</v>
+        <v>0.13651391780488509</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59271083458202378</v>
+        <v>0.13395153257111558</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28487290976027957</v>
+        <v>-0.1773512294867754</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65339044959365511</v>
+        <v>1.0968872697575449</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39441006135839185</v>
+        <v>0.59991995225305206</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2593205200941897E-2</v>
+        <v>-0.67405880762468384</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27122401605577307</v>
+        <v>0.35319420389211476</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0727808769845508</v>
+        <v>0.7717064189215721</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17883902558989284</v>
+        <v>0.17742611456688517</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42099516710576435</v>
+        <v>1.0443306571855748</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0007742529512891E-2</v>
+        <v>0.52129912569589609</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41026258085925082</v>
+        <v>-0.20137744445902284</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1415810074643964</v>
+        <v>-0.24398824419020726</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19625974077800934</v>
+        <v>-0.43277929904111323</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34206022795506463</v>
+        <v>0.84295320896662029</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1210036801116132E-2</v>
+        <v>1.0225413607565998</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4662655822281212</v>
+        <v>0.27683967490916039</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49836991563039335</v>
+        <v>1.1593550911756472</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32394590376583765</v>
+        <v>-0.2385804921629322</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61109447063208955</v>
+        <v>0.82457399083180216</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74155647748154863</v>
+        <v>0.27125820660641531</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7894059679373768E-2</v>
+        <v>5.8227263130035123E-3</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61045186701365295</v>
+        <v>1.2730210288246888</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56278049214007519</v>
+        <v>-0.34191932243145429</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.19927831684595</v>
+        <v>0.47578289613610303</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1946327409322739</v>
+        <v>1.0773229221377303</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86641073626927212</v>
+        <v>-0.28257522521529488</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.494936944829945E-2</v>
+        <v>-0.67342729252805711</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26271977269826441</v>
+        <v>0.77734962655713802</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59934700476663272</v>
+        <v>-0.35008253246778098</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1305569308721424E-2</v>
+        <v>1.250905575783624</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2282344677465753</v>
+        <v>1.1645717600133285</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72612053948999189</v>
+        <v>0.80467020232874065</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3428688611775392E-2</v>
+        <v>1.2913595150106387</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63654492684681974</v>
+        <v>-0.65151810385778974</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1839629411287187</v>
+        <v>-0.13281362493927595</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1867652336570729</v>
+        <v>-0.17002276666272675</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30608094013215514</v>
+        <v>0.14714402879064048</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2084006743711726</v>
+        <v>1.1686715353076058</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80340830973729838</v>
+        <v>2.9200342100140331E-2</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43058763529553645</v>
+        <v>0.5104506056528566</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.532958979260008E-2</v>
+        <v>-0.37667294290798159</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5873500801999905E-2</v>
+        <v>-0.49371800104557728</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3728072949461505</v>
+        <v>-8.7536877342395458E-2</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22832019126895053</v>
+        <v>0.88944821458439027</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66285239783608829</v>
+        <v>0.7926793278040154</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5900032752963662</v>
+        <v>0.815315198991998</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57051237788698517</v>
+        <v>0.51051016033345276</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88001745771229611</v>
+        <v>0.58114767865371042</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29786228646175439</v>
+        <v>1.1879568440152024</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39237113027488557</v>
+        <v>1.1541644161611944</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72388058828729407</v>
+        <v>1.2205712747384063</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25268175083582967</v>
+        <v>1.1801526473116979</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57688403478536876</v>
+        <v>0.70586931147976295</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6318168747989128</v>
+        <v>-0.69730405817084473</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2297007515086418</v>
+        <v>0.9063246180365705</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85547249643239875</v>
+        <v>-0.13273695721256851</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.233518605802375</v>
+        <v>-0.44885444629845739</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66062957521164978</v>
+        <v>0.5876974936927255</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16013342380465923</v>
+        <v>0.32263642334189369</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1318477324705003</v>
+        <v>0.70631307990206738</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69422759075849938</v>
+        <v>0.93262367033646543</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63216244394423038</v>
+        <v>1.2322813323959863</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35163732586947916</v>
+        <v>0.11739535438710313</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1809063038328529</v>
+        <v>1.0566453836150655</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69985273451560537</v>
+        <v>0.97116972663741641</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55503975370171488</v>
+        <v>-0.24135411369765647</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64686380567011525</v>
+        <v>1.13699857783502</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36955206819526132</v>
+        <v>1.0349024241984555</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1899665464885116</v>
+        <v>0.85704258150342683</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37267259389075957</v>
+        <v>0.2398944985389464</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68003688233939119</v>
+        <v>3.8432978455558153E-2</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50945324562648575</v>
+        <v>1.0234169513929787</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2966717906664189</v>
+        <v>0.86498422164477562</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68573545273029191</v>
+        <v>1.254822883537779</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33731790088910407</v>
+        <v>1.215609946306264</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45496606324181332</v>
+        <v>-0.25765056352561211</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21408134465179662</v>
+        <v>0.25446159194495555</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96404353706602808</v>
+        <v>1.0879563905581802</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57705257871527316</v>
+        <v>-0.10373786351582592</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6353585222604217E-2</v>
+        <v>0.76630471786843657</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66746036315681212</v>
+        <v>-0.58911550938246626</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52113861182228804</v>
+        <v>1.2166349979959421</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.1164520695276918E-2</v>
+        <v>-0.32214058873764584</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26932071930854962</v>
+        <v>-0.27672608779737318</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62915538900747148</v>
+        <v>-0.26446439912272313</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2265458921553489</v>
+        <v>0.34274005657250872</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89499918006887924</v>
+        <v>-0.33565246270386129</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1007779846285646</v>
+        <v>-0.39658787753809643</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15255139309606114</v>
+        <v>-0.51169754580442883</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44953839192091039</v>
+        <v>1.2718591704588349</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88682731598316522</v>
+        <v>0.15918013165553457</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62387918864636194</v>
+        <v>-4.6229398450388981E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23539094080434464</v>
+        <v>-0.67514135166462208</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50539847190492071</v>
+        <v>1.0040895139777644</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65893455400651813</v>
+        <v>-0.11770682454583858</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61715664494216305</v>
+        <v>0.89358948528632376</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16784469505279898</v>
+        <v>8.5639357473343836E-2</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56766351825663608</v>
+        <v>0.86146093076270103</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87065587177165948</v>
+        <v>-5.586777203437765E-2</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30143900275929636</v>
+        <v>1.2200039777597338</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.2964436397137575E-2</v>
+        <v>7.2507486859354708E-2</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2480836695987063</v>
+        <v>-0.56558187173234398</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59805719373377397</v>
+        <v>0.61539583089801253</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0654924980459717</v>
+        <v>0.60139128612368653</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4072228341825026</v>
+        <v>0.59131154327167712</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14444529495434111</v>
+        <v>0.43655993381435443</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24480678580366444</v>
+        <v>-0.47039849400038802</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44442747515536141</v>
+        <v>-0.18917812265450484</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1075737472447944</v>
+        <v>-0.42198286410358143</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0001738665974127E-2</v>
+        <v>-0.5178428583992567</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64866720289926305</v>
+        <v>-0.22564427250380215</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2095157592616401</v>
+        <v>0.20984454117624485</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24584308290697598</v>
+        <v>0.35353586876058429</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76188920835389773</v>
+        <v>-0.33467520316152388</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99357020228372628</v>
+        <v>0.96239087298312342</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.61442168926602747</v>
+        <v>-0.50144006493791116</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>6.494885857240229E-2</v>
+        <v>0.68779307745110629</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.635698548718999</v>
+        <v>0.9988252550046115</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5396081162853521</v>
+        <v>-0.3093764621601498</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63264417690947949</v>
+        <v>0.7084181222872814</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0024759089414557</v>
+        <v>0.2887758719774447</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2367066134019289</v>
+        <v>-0.24903375095969871</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71142196958913217</v>
+        <v>-0.38338543369651035</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11023893138052943</v>
+        <v>-6.8074855899667774E-2</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84031163221584104</v>
+        <v>1.0810995360142568</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84761698798470619</v>
+        <v>0.21253700639656259</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6416222789499333E-3</v>
+        <v>-9.5704708529842364E-4</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1510199479784022</v>
+        <v>1.2524577884410311</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82650977196355013</v>
+        <v>0.95394054298600683</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93222974312331131</v>
+        <v>-0.59413199333610578</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18352186805523485</v>
+        <v>0.40719102100531712</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13645240461756059</v>
+        <v>0.19063465114147959</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60888974951375796</v>
+        <v>0.26172466405805306</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50049167232866187</v>
+        <v>1.2191570719074778</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15102656064889675</v>
+        <v>1.1068734145420378</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81523548639524135</v>
+        <v>-0.12371879316473811</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35889909778501661</v>
+        <v>0.19029974831513741</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31251900696909996</v>
+        <v>0.8770060508762727</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.31841462548151567</v>
+        <v>0.93984896416449271</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97200780096709005</v>
+        <v>3.9499042341617496E-3</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16918985514388529</v>
+        <v>0.88028951663090105</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37525455162952559</v>
+        <v>0.46619305834014568</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8989780968290364</v>
+        <v>-0.6684120932345603</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70222619586669355</v>
+        <v>1.5471666690006769E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18577721362411115</v>
+        <v>0.41400756134487926</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71743478155061058</v>
+        <v>0.61131104124975377</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4601800027397349E-3</v>
+        <v>0.21156666473609342</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0479132539371114</v>
+        <v>-0.21425151206195836</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28715496587689349</v>
+        <v>0.28325671868784896</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94554382434340667</v>
+        <v>-0.49018443822495916</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2162178664364003</v>
+        <v>0.31649773412652116</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42420237453274967</v>
+        <v>0.44555388609781832</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.11431232470963737</v>
+        <v>-0.36711089376929307</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57891595498892578</v>
+        <v>0.37712923943551502</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68474481593071923</v>
+        <v>0.7051497267994109</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75576462264370736</v>
+        <v>0.30021882278802114</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4389939279184929</v>
+        <v>-0.6848873844713872</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37841168776304857</v>
+        <v>1.1292933652382617</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18581666254245466</v>
+        <v>1.2302484452447859</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65198169564149455</v>
+        <v>8.1819464564476974E-2</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23690436541320525</v>
+        <v>0.61758497478612395</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12681280455604105</v>
+        <v>0.26572229828701466</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.054114165792309E-2</v>
+        <v>-0.53896927761728697</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66195113899547264</v>
+        <v>5.3850512272446194E-2</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66653307616031698</v>
+        <v>0.7832387449481486</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51109085182540093</v>
+        <v>1.4386672428887026E-2</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93405882509460891</v>
+        <v>-5.4854689389788325E-2</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50004259411789653</v>
+        <v>1.2784810820507457</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22485021198550159</v>
+        <v>-0.24528190104437408</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42868659515673313</v>
+        <v>-0.58067016661340354</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60053849488788047</v>
+        <v>3.4902002190459358E-2</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1969316752885408E-2</v>
+        <v>0.30300016679496045</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40956411672683934</v>
+        <v>0.89109710874495174</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55007355547352987</v>
+        <v>-0.63802901935932055</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22287249677817056</v>
+        <v>1.2889389819483446</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87258759243719952</v>
+        <v>0.67669591900313963</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0189626339923732</v>
+        <v>1.1592728064698099</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37150722382656265</v>
+        <v>1.2520173694715448</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69103242980821578</v>
+        <v>-0.32929825418550807</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27283915206077491</v>
+        <v>1.1390252191745307</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67561522417839637</v>
+        <v>0.35614744378795415</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2810332608563972</v>
+        <v>0.39214494359097896</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16590004127719138</v>
+        <v>0.96042594602803866</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29997905113813128</v>
+        <v>0.42199109253646694</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.49767873413073005</v>
+        <v>0.95462247791102395</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26419750368056105</v>
+        <v>-0.69355320761840611</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21173549129102009</v>
+        <v>-0.26361158603687884</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47979986021034038</v>
+        <v>-2.5875245792834844E-2</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1493559348554401</v>
+        <v>0.63311173921933395</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36845884160550879</v>
+        <v>0.38965002598964538</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8290104858541563E-2</v>
+        <v>1.1260405358862939</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0537353596921741</v>
+        <v>-0.42306330753650601</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87800212117381427</v>
+        <v>0.15488021911141625</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.62253806949687562</v>
+        <v>0.4207733752546976</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6365776573463098E-2</v>
+        <v>1.0255322059361283</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9953559973678332</v>
+        <v>-0.56976602930201414</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.542791955455197E-2</v>
+        <v>1.1058063915592442</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38900614762427099</v>
+        <v>-0.22433092035575708</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61183142743060759</v>
+        <v>-0.46110649967037287</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0783630909894739</v>
+        <v>-0.68993694899619018</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47556518037937678</v>
+        <v>1.0138698584273595</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50909165080923779</v>
+        <v>5.6291872414279576E-2</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26365507246134223</v>
+        <v>-0.60622208809974243</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1021433812130235</v>
+        <v>0.14566485889696401</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60090646210295917</v>
+        <v>-7.0058731568048538E-2</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14711899355253544</v>
+        <v>0.9892857727409532</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77364812735143906</v>
+        <v>0.32693120316817237</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52890063544013133</v>
+        <v>1.0263671916805188</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52881062348886032</v>
+        <v>0.18248600602650988</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96699270132772708</v>
+        <v>0.39305338645173582</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.875088662901562E-2</v>
+        <v>1.8478006952511006E-2</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4741381364774091</v>
+        <v>3.562268318060946E-3</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10419972154802459</v>
+        <v>-7.6465660145121683E-2</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95586354670518126</v>
+        <v>-0.46564274751977242</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1793764820614383</v>
+        <v>0.46332502940213449</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68326064307948609</v>
+        <v>0.49959294719203928</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72450545675385514</v>
+        <v>0.3022689907364402</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.54233092369913405</v>
+        <v>1.2250344826241877E-2</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23939355227057213</v>
+        <v>1.2366320762436793</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37923229209228726</v>
+        <v>0.61942398185951575</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9432879794395488E-2</v>
+        <v>3.6934705034290527E-3</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1609170003463849</v>
+        <v>0.55894595422643123</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66273965940454294</v>
+        <v>0.59112781193210751</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90045893299319357</v>
+        <v>0.17064324854002377</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22559350508590548</v>
+        <v>-0.67298946233805479</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93984647712813296</v>
+        <v>-0.17036322229392376</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62995996034220703</v>
+        <v>0.28272031175587742</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5758352862269871</v>
+        <v>1.1457245415685657</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1775103839307783</v>
+        <v>0.22826302309700663</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4058937950885233</v>
+        <v>0.45523702533091748</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2779838751426889E-2</v>
+        <v>-9.7078569028733463E-2</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65295385166797937</v>
+        <v>-0.16996396934497926</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0906297512618501</v>
+        <v>-0.35900083831659524</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38391754488049212</v>
+        <v>-0.26441135149909445</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.67927800872860211</v>
+        <v>0.41220319559758489</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47719171520756021</v>
+        <v>0.70948312851299744</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95531763340434028</v>
+        <v>-3.0591950691882808E-4</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31362114649251227</v>
+        <v>1.0395341829059372</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2751133477869194E-2</v>
+        <v>0.84162289444804039</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2288394351051608</v>
+        <v>0.64418995661084755</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4510628608988032E-2</v>
+        <v>1.0796309479410475</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6165116200517049</v>
+        <v>0.14698668738670739</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8271072540959681E-2</v>
+        <v>-0.26531699516442275</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61898802384672269</v>
+        <v>-0.27742507990243626</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6393164428127918E-3</v>
+        <v>0.60640369627095381</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6815681068378385E-3</v>
+        <v>0.65571919524281341</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12747545065667243</v>
+        <v>-9.7717985741601954E-2</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99433654177724984</v>
+        <v>0.37274149411642044</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5589487214439206</v>
+        <v>-0.24505398798438227</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27398240845201327</v>
+        <v>-0.67464780993772355</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23189376879103674</v>
+        <v>-0.34520289247102798</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51632033344331218</v>
+        <v>1.2999937254953582</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40939086479788056</v>
+        <v>0.88930192181508017</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36105658842589938</v>
+        <v>-0.42380065937849531</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2214702819314878</v>
+        <v>-0.16247413325403803</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32570469917815048</v>
+        <v>-0.26932199240825283</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82385804026099163</v>
+        <v>0.48631932583531001</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.20056558370466</v>
+        <v>0.69061602193381133</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0694338934667893</v>
+        <v>1.2253971760311422</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92093187832267387</v>
+        <v>-0.40324976661108147</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89657783549244896</v>
+        <v>-0.50400094863329836</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6212225981574457E-2</v>
+        <v>-0.62411193072063376</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15113277864614871</v>
+        <v>-0.5705737466529035</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40029458050313105</v>
+        <v>1.1584376342523306</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82369908761457222</v>
+        <v>0.5781148574150039</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.148045165387086</v>
+        <v>0.78845391178189539</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3053188124840549</v>
+        <v>1.2701324944059824</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94126741318876128</v>
+        <v>-0.56599767762085973</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69191676027627191</v>
+        <v>-0.67403551999291489</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5788231598443121</v>
+        <v>-0.62239976204082126</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.487668439115942E-2</v>
+        <v>1.0735111266097559</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30424222687605984</v>
+        <v>1.1651736186677948</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15218204649240263</v>
+        <v>-0.35677907080987437</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.61592123758321327</v>
+        <v>-0.48575827291329943</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33293032132719036</v>
+        <v>0.72145586034815845</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35698265142552921</v>
+        <v>-0.39752291619964275</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2204379274612105</v>
+        <v>-0.21750437440325809</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61917110482283566</v>
+        <v>0.25201324631566147</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28900514222354157</v>
+        <v>0.57030699482233405</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62272010919390897</v>
+        <v>-0.42285941709952257</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85980732921557723</v>
+        <v>0.75238600251780019</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63417283162202787</v>
+        <v>-0.61945767192319967</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6136068395256951E-2</v>
+        <v>0.76601974074279</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46364308280916022</v>
+        <v>1.0734112215039906</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45189739742586421</v>
+        <v>-0.40409201090530189</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74252414212587348</v>
+        <v>0.18173008310751659</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66797281609208858</v>
+        <v>0.22633365966527141</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8085101670477024</v>
+        <v>-0.39236045859564261</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42318654283201274</v>
+        <v>0.97231572243995079</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34738366823920552</v>
+        <v>-0.66159554188358638</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6876248987338647E-2</v>
+        <v>0.56333261695400805</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95877848246665032</v>
+        <v>-0.51566527242047533</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1825065715935974</v>
+        <v>5.6722068504084788E-3</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.61798523596820121</v>
+        <v>1.0967024433824837</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11637811756742966</v>
+        <v>0.56829172799381444</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8979861802320919E-2</v>
+        <v>-0.11219006356557015</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24687138283283616</v>
+        <v>0.81751040923638407</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5559836242691665E-2</v>
+        <v>0.22643647286376423</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47354827496074559</v>
+        <v>1.2886490835321918</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63314947613474226</v>
+        <v>1.0678590817791089</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44371526423708363</v>
+        <v>0.35329159576998115</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41746175324773227</v>
+        <v>0.23501717098103625</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67344442915094516</v>
+        <v>0.56672259828130223</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.59763205469985037</v>
+        <v>-0.52010689171434898</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3662402044596851E-2</v>
+        <v>0.57970955130604374</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23376156693718375</v>
+        <v>0.9021297268839632</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17191344483372206</v>
+        <v>0.84578878453845596</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16079079695463827</v>
+        <v>-0.69455650222894438</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0793702657183222</v>
+        <v>-9.1689611395370907E-2</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11266618910019277</v>
+        <v>-0.2524515202579356</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6563164988291401E-3</v>
+        <v>0.50099086069746601</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58055945319295965</v>
+        <v>0.27750692782428854</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.332682950908886</v>
+        <v>0.84449770521078116</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.22002644748681077</v>
+        <v>-0.30788860745634872</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19350483939544771</v>
+        <v>-0.4112038714095978</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.65134204368311766</v>
+        <v>0.37646125415620268</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80938446132381259</v>
+        <v>-0.12034710208576649</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7222158881442009</v>
+        <v>-0.412582463124054</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8320067597453078</v>
+        <v>0.9185617155823731</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50752588748813854</v>
+        <v>0.92141653858936667</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0006882021680383</v>
+        <v>0.46975403751772471</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32156788377330514</v>
+        <v>-0.42973474778466203</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68276748292411904</v>
+        <v>-0.61885144219959876</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1018836330415536</v>
+        <v>0.69008804405569735</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12552334222933825</v>
+        <v>0.26993439548993936</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2636022297578664</v>
+        <v>0.9851112238257298</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1388766510098156</v>
+        <v>0.50535731180742882</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31180151915808141</v>
+        <v>-0.64532980440374765</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.52610749613570196</v>
+        <v>0.26512916339378556</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8641337647278506E-2</v>
+        <v>0.17025388061166002</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95915490266114034</v>
+        <v>-2.2598520348132256E-2</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42384224295178119</v>
+        <v>0.45286704697764835</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32851334734913196</v>
+        <v>-0.47791319633301987</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29811534510166315</v>
+        <v>-0.57622397127586855</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24302159868250861</v>
+        <v>0.3627494339374735</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19949099022155892</v>
+        <v>1.0013605511185606</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43830607408096967</v>
+        <v>-0.11752398710112</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8661681136790573E-2</v>
+        <v>-0.15264931800948522</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46677769199971819</v>
+        <v>0.28183728130632213</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75740711430106145</v>
+        <v>0.37090176025975796</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.54377710372208421</v>
+        <v>-0.36572326322534199</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42614324826487726</v>
+        <v>-0.57235623861498786</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56530033181136141</v>
+        <v>-0.17546179993748612</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25399433354771528</v>
+        <v>6.1593748294929362E-2</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3428188979305451</v>
+        <v>-0.22616058241044068</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35336206345529431</v>
+        <v>1.0194900024913083</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64607474537463405</v>
+        <v>0.4364517211432497</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63688991608886769</v>
+        <v>-0.67168651193612439</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1257252513488245E-2</v>
+        <v>-0.14960797576519047</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.69532201943413652</v>
+        <v>0.56501721485174783</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.137783088371684</v>
+        <v>0.31923762243735054</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2467957508136855E-2</v>
+        <v>-0.26297032842054713</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61682224600014424</v>
+        <v>1.1315496950832482</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34509924346127541</v>
+        <v>0.14944575542964866</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.34995615455080142</v>
+        <v>0.44697551638516853</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0789420659450428</v>
+        <v>-0.44413671119369669</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8975270688839121E-3</v>
+        <v>1.0169312779323583</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4599366460223846</v>
+        <v>0.48615006189541932</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.230513159291579</v>
+        <v>0.45243507724631882</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.250707346215709</v>
+        <v>0.25653462870984711</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86072836613657633</v>
+        <v>-0.62333153460895852</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2206427384544636</v>
+        <v>1.2690340804913725</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84404579592259088</v>
+        <v>-0.48583421345936117</v>
       </c>
     </row>
   </sheetData>
